--- a/Reports/Soy_Compiled.xlsx
+++ b/Reports/Soy_Compiled.xlsx
@@ -8,21 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\weedDatabase\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950B977-91D0-4F9D-8012-15DF6D2B4469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56099B14-9EF8-4F0E-A8C8-7394644BD6CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$37</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
   <si>
     <t>Plot Soy</t>
+  </si>
+  <si>
+    <t>Soybean Stage</t>
   </si>
   <si>
     <t>Young Count</t>
@@ -33,12 +39,18 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,17 +62,42 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,17 +120,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -402,20 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,519 +486,634 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>214</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>117</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>106</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>145</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>760</v>
+      </c>
+      <c r="D6">
+        <v>1412</v>
+      </c>
+      <c r="E6">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>205</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>720</v>
+      </c>
+      <c r="D7">
+        <v>834</v>
+      </c>
+      <c r="E7">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>211</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>718</v>
+      </c>
+      <c r="D8">
+        <v>1406</v>
+      </c>
+      <c r="E8">
+        <v>-688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>212</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>613</v>
+      </c>
+      <c r="D9">
+        <v>1199</v>
+      </c>
+      <c r="E9">
+        <v>-586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>303</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>186</v>
+      </c>
+      <c r="E10">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>304</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>296</v>
+      </c>
+      <c r="D11">
+        <v>283</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>306</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>324</v>
+      </c>
+      <c r="D12" s="4">
+        <v>305</v>
+      </c>
+      <c r="E12" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>307</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6">
+        <v>265</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>105</v>
       </c>
-      <c r="B6">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>89</v>
       </c>
-      <c r="C6">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E14">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>106</v>
       </c>
-      <c r="B7">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>97</v>
       </c>
-      <c r="C7">
+      <c r="D15">
         <v>511</v>
       </c>
-      <c r="D7">
+      <c r="E15">
         <v>-414</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>107</v>
       </c>
-      <c r="B8">
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>91</v>
       </c>
-      <c r="C8">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E16">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>108</v>
       </c>
-      <c r="B9">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>91</v>
       </c>
-      <c r="C9">
+      <c r="D17">
         <v>947</v>
       </c>
-      <c r="D9">
+      <c r="E17">
         <v>-856</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>109</v>
       </c>
-      <c r="B10">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>72</v>
       </c>
-      <c r="C10">
+      <c r="D18">
         <v>586</v>
       </c>
-      <c r="D10">
+      <c r="E18">
         <v>-514</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>110</v>
       </c>
-      <c r="B11">
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>91</v>
       </c>
-      <c r="C11">
+      <c r="D19">
         <v>753</v>
       </c>
-      <c r="D11">
+      <c r="E19">
         <v>-662</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>111</v>
       </c>
-      <c r="B12">
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
         <v>126</v>
       </c>
-      <c r="C12">
+      <c r="D20">
         <v>210</v>
       </c>
-      <c r="D12">
+      <c r="E20">
         <v>-84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>112</v>
       </c>
-      <c r="B13">
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>75</v>
       </c>
-      <c r="C13">
+      <c r="D21">
         <v>197</v>
       </c>
-      <c r="D13">
+      <c r="E21">
         <v>-122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>201</v>
       </c>
-      <c r="B14">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>166</v>
       </c>
-      <c r="C14">
+      <c r="D22">
         <v>239</v>
       </c>
-      <c r="D14">
+      <c r="E22">
         <v>-73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>202</v>
-      </c>
-      <c r="B15">
-        <v>760</v>
-      </c>
-      <c r="C15">
-        <v>1412</v>
-      </c>
-      <c r="D15">
-        <v>-652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>203</v>
       </c>
-      <c r="B16">
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>133</v>
       </c>
-      <c r="C16">
+      <c r="D23">
         <v>560</v>
       </c>
-      <c r="D16">
+      <c r="E23">
         <v>-427</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>204</v>
       </c>
-      <c r="B17">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>320</v>
       </c>
-      <c r="C17">
+      <c r="D24">
         <v>370</v>
       </c>
-      <c r="D17">
+      <c r="E24">
         <v>-50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>205</v>
-      </c>
-      <c r="B18">
-        <v>720</v>
-      </c>
-      <c r="C18">
-        <v>834</v>
-      </c>
-      <c r="D18">
-        <v>-114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>206</v>
       </c>
-      <c r="B19">
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>634</v>
       </c>
-      <c r="C19">
+      <c r="D25">
         <v>616</v>
       </c>
-      <c r="D19">
+      <c r="E25">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>207</v>
       </c>
-      <c r="B20">
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>294</v>
       </c>
-      <c r="C20">
+      <c r="D26">
         <v>441</v>
       </c>
-      <c r="D20">
+      <c r="E26">
         <v>-147</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>208</v>
       </c>
-      <c r="B21">
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
         <v>426</v>
       </c>
-      <c r="C21">
+      <c r="D27">
         <v>644</v>
       </c>
-      <c r="D21">
+      <c r="E27">
         <v>-218</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>209</v>
       </c>
-      <c r="B22">
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>357</v>
       </c>
-      <c r="C22">
+      <c r="D28">
         <v>967</v>
       </c>
-      <c r="D22">
+      <c r="E28">
         <v>-610</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>210</v>
       </c>
-      <c r="B23">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>355</v>
       </c>
-      <c r="C23">
+      <c r="D29">
         <v>840</v>
       </c>
-      <c r="D23">
+      <c r="E29">
         <v>-485</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>211</v>
-      </c>
-      <c r="B24">
-        <v>718</v>
-      </c>
-      <c r="C24">
-        <v>1406</v>
-      </c>
-      <c r="D24">
-        <v>-688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>212</v>
-      </c>
-      <c r="B25">
-        <v>613</v>
-      </c>
-      <c r="C25">
-        <v>1199</v>
-      </c>
-      <c r="D25">
-        <v>-586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>301</v>
       </c>
-      <c r="B26">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
         <v>894</v>
       </c>
-      <c r="C26">
+      <c r="D30">
         <v>3922</v>
       </c>
-      <c r="D26">
+      <c r="E30">
         <v>-3028</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>302</v>
       </c>
-      <c r="B27">
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="C27">
+      <c r="D31">
         <v>1169</v>
       </c>
-      <c r="D27">
+      <c r="E31">
         <v>-1140</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>303</v>
-      </c>
-      <c r="B28">
-        <v>74</v>
-      </c>
-      <c r="C28">
-        <v>186</v>
-      </c>
-      <c r="D28">
-        <v>-112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>304</v>
-      </c>
-      <c r="B29">
-        <v>296</v>
-      </c>
-      <c r="C29">
-        <v>283</v>
-      </c>
-      <c r="D29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>305</v>
       </c>
-      <c r="B30">
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
         <v>497</v>
       </c>
-      <c r="C30">
+      <c r="D32">
         <v>2132</v>
       </c>
-      <c r="D30">
+      <c r="E32">
         <v>-1635</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>306</v>
-      </c>
-      <c r="B31">
-        <v>324</v>
-      </c>
-      <c r="C31">
-        <v>305</v>
-      </c>
-      <c r="D31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>307</v>
-      </c>
-      <c r="B32">
-        <v>77</v>
-      </c>
-      <c r="C32">
-        <v>265</v>
-      </c>
-      <c r="D32">
-        <v>-188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>308</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
         <v>187</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2243</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-2056</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>309</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>624</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>2059</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1435</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>310</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
         <v>565</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1990</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-1425</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>311</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
         <v>115</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1583</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-1468</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>312</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
         <v>207</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1533</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-1326</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D37">
+  <autoFilter ref="A1:E37" xr:uid="{5B32C1F2-3F28-4EA7-AEC1-F8D6D2F13F90}">
+    <sortState ref="A2:E37">
+      <sortCondition descending="1" ref="B1:B37"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="E2:E37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>